--- a/Bed Turnaround Time Data.xlsx
+++ b/Bed Turnaround Time Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paddy\Documents\GitHub\iat-814-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkenday\Documents\GitHub\iat-814-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D69CD7F-7FB1-43E4-8F94-BD35E9FAEE83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B198D0A0-202D-41A5-BEE5-87E8BA648BD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bed Turnaround Time Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="Sheet5" sheetId="7" r:id="rId4"/>
     <sheet name="Turnaround Time" sheetId="2" r:id="rId5"/>
     <sheet name="Unit" sheetId="3" r:id="rId6"/>
-    <sheet name="Bed" sheetId="4" r:id="rId7"/>
+    <sheet name="Fields" sheetId="4" r:id="rId7"/>
+    <sheet name="sampleData" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="140">
   <si>
     <t>Bed #1</t>
   </si>
@@ -106,15 +108,6 @@
   </si>
   <si>
     <t>HAU</t>
-  </si>
-  <si>
-    <t>Total Bed Turnarond Time</t>
-  </si>
-  <si>
-    <t>Cleaning Start Time</t>
-  </si>
-  <si>
-    <t>Cleaning Completion Time</t>
   </si>
   <si>
     <t>No. of Beds</t>
@@ -220,6 +213,315 @@
       <t xml:space="preserve">
 PatientID, Admission Date, Floor, Unit, Bed No</t>
     </r>
+  </si>
+  <si>
+    <t>Total Bed Turnarond Time(mins)</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>BedStatus</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Surgical</t>
+  </si>
+  <si>
+    <t>Orthopedics</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Thoracic Surgical</t>
+  </si>
+  <si>
+    <t>Pediatry</t>
+  </si>
+  <si>
+    <t>Obstetrics</t>
+  </si>
+  <si>
+    <t>Intensive Care</t>
+  </si>
+  <si>
+    <t>Emergency</t>
+  </si>
+  <si>
+    <t>Cardiology</t>
+  </si>
+  <si>
+    <t>Nephrology</t>
+  </si>
+  <si>
+    <t>AdmitDateTime</t>
+  </si>
+  <si>
+    <t>DischargeDateTime</t>
+  </si>
+  <si>
+    <t>RoomNo</t>
+  </si>
+  <si>
+    <t>Transfer?</t>
+  </si>
+  <si>
+    <t>Discharge?</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>BedNum</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>BN3</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>PA8</t>
+  </si>
+  <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>PA10</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>PA13</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>PA16</t>
+  </si>
+  <si>
+    <t>PA17</t>
+  </si>
+  <si>
+    <t>PA18</t>
+  </si>
+  <si>
+    <t>PA19</t>
+  </si>
+  <si>
+    <t>PA20</t>
+  </si>
+  <si>
+    <t>PA21</t>
+  </si>
+  <si>
+    <t>PA22</t>
+  </si>
+  <si>
+    <t>PA23</t>
+  </si>
+  <si>
+    <t>PA24</t>
+  </si>
+  <si>
+    <t>BN2</t>
+  </si>
+  <si>
+    <t>PA25</t>
+  </si>
+  <si>
+    <t>PA26</t>
+  </si>
+  <si>
+    <t>PA27</t>
+  </si>
+  <si>
+    <t>PA28</t>
+  </si>
+  <si>
+    <t>PA29</t>
+  </si>
+  <si>
+    <t>PA30</t>
+  </si>
+  <si>
+    <t>PA31</t>
+  </si>
+  <si>
+    <t>PA32</t>
+  </si>
+  <si>
+    <t>PA33</t>
+  </si>
+  <si>
+    <t>PA34</t>
+  </si>
+  <si>
+    <t>PA35</t>
+  </si>
+  <si>
+    <t>PA36</t>
+  </si>
+  <si>
+    <t>PA37</t>
+  </si>
+  <si>
+    <t>PA38</t>
+  </si>
+  <si>
+    <t>PA39</t>
+  </si>
+  <si>
+    <t>PA40</t>
+  </si>
+  <si>
+    <t>PA41</t>
+  </si>
+  <si>
+    <t>PA42</t>
+  </si>
+  <si>
+    <t>PA43</t>
+  </si>
+  <si>
+    <t>PA44</t>
+  </si>
+  <si>
+    <t>PA45</t>
+  </si>
+  <si>
+    <t>PA46</t>
+  </si>
+  <si>
+    <t>PA47</t>
+  </si>
+  <si>
+    <t>BN1</t>
+  </si>
+  <si>
+    <t>PA48</t>
+  </si>
+  <si>
+    <t>PA49</t>
+  </si>
+  <si>
+    <t>PA50</t>
+  </si>
+  <si>
+    <t>PA51</t>
+  </si>
+  <si>
+    <t>PA52</t>
+  </si>
+  <si>
+    <t>PA53</t>
+  </si>
+  <si>
+    <t>PA54</t>
+  </si>
+  <si>
+    <t>PA55</t>
+  </si>
+  <si>
+    <t>PA56</t>
+  </si>
+  <si>
+    <t>PA57</t>
+  </si>
+  <si>
+    <t>PA58</t>
+  </si>
+  <si>
+    <t>PA59</t>
+  </si>
+  <si>
+    <t>PA60</t>
+  </si>
+  <si>
+    <t>PA61</t>
+  </si>
+  <si>
+    <t>PA62</t>
+  </si>
+  <si>
+    <t>PA63</t>
+  </si>
+  <si>
+    <t>PA64</t>
+  </si>
+  <si>
+    <t>PA65</t>
+  </si>
+  <si>
+    <t>PA66</t>
+  </si>
+  <si>
+    <t>PA67</t>
+  </si>
+  <si>
+    <t>PA68</t>
+  </si>
+  <si>
+    <t>PA69</t>
+  </si>
+  <si>
+    <t>PA70</t>
+  </si>
+  <si>
+    <t>PA71</t>
+  </si>
+  <si>
+    <t>Charts</t>
+  </si>
+  <si>
+    <t>Admissions and discharges (over a period) - Total / filter by department</t>
   </si>
 </sst>
 </file>
@@ -280,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -297,11 +599,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -312,6 +658,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8E96715-D1E9-4076-877A-781E6597B786}" name="Table1" displayName="Table1" ref="A1:H142" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:H142" xr:uid="{C417EB3F-AE05-42B1-B9FA-F7393ED8684D}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{4C22662E-33E8-4FB8-81BA-49AD6DCE19BF}" name="Floor "/>
+    <tableColumn id="2" xr3:uid="{9E03D0F6-F0BD-4BBB-9FB8-E8292DC9AD60}" name="Unit"/>
+    <tableColumn id="3" xr3:uid="{625A7DE5-BAB6-4A77-A007-DAD64FF6A169}" name="Bed No"/>
+    <tableColumn id="4" xr3:uid="{21E83EF4-9A49-4CBF-88BE-6E2D17500E10}" name="Patient Departs" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{7BB5D427-0F47-4251-8490-A45AF820CCA3}" name="Next Patient Arrives" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{70787E5D-4622-4190-A46D-84838DED3F42}" name="Total Bed Turnarond Time(mins)" dataDxfId="0">
+      <calculatedColumnFormula>ROUND((E2-D2)*1440,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{961B7ED8-8BBA-4B35-84E4-8EB060EDAC4C}" name="BedStatus"/>
+    <tableColumn id="8" xr3:uid="{B421E289-A5F8-4582-9D4A-A8434FAB2CC1}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,39 +945,39 @@
   <dimension ref="B2:K104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N38" sqref="A1:XFD1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="16.6640625" customWidth="1"/>
     <col min="5" max="6" width="16.6640625" customWidth="1"/>
     <col min="8" max="9" width="16.6640625" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -623,11 +988,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -647,7 +1012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <v>88285.45</v>
       </c>
@@ -668,7 +1033,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <v>88289.513888888891</v>
       </c>
@@ -691,7 +1056,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <v>88297.498611111107</v>
       </c>
@@ -714,7 +1079,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <v>88298.870833333334</v>
       </c>
@@ -737,7 +1102,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <v>88318.53125</v>
       </c>
@@ -760,7 +1125,7 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <v>88340.451388888891</v>
       </c>
@@ -783,7 +1148,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <v>88345.885416666657</v>
       </c>
@@ -806,7 +1171,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <v>88346.552083333343</v>
       </c>
@@ -829,7 +1194,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <v>88348.8125</v>
       </c>
@@ -852,7 +1217,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <v>88352.538888888899</v>
       </c>
@@ -875,7 +1240,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <v>88355.470833333326</v>
       </c>
@@ -898,7 +1263,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <v>88376.492361111101</v>
       </c>
@@ -921,7 +1286,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <v>88387.546527777769</v>
       </c>
@@ -944,7 +1309,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <v>88401.675000000003</v>
       </c>
@@ -967,7 +1332,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <v>88421.510416666657</v>
       </c>
@@ -990,7 +1355,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <v>88425.612500000003</v>
       </c>
@@ -1013,7 +1378,7 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <v>88431.594444444447</v>
       </c>
@@ -1036,7 +1401,7 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <v>88455.791666666657</v>
       </c>
@@ -1059,7 +1424,7 @@
       </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <v>88486.547222222231</v>
       </c>
@@ -1082,7 +1447,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <v>88487.5625</v>
       </c>
@@ -1105,7 +1470,7 @@
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <v>88495.513888888891</v>
       </c>
@@ -1128,7 +1493,7 @@
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <v>88533.481249999997</v>
       </c>
@@ -1151,7 +1516,7 @@
       </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <v>88593.685416666674</v>
       </c>
@@ -1174,7 +1539,7 @@
       </c>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <v>88594.738888888882</v>
       </c>
@@ -1197,7 +1562,7 @@
       </c>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <v>88605.647222222222</v>
       </c>
@@ -1220,7 +1585,7 @@
       </c>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="4"/>
@@ -1238,7 +1603,7 @@
       </c>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="4"/>
@@ -1256,7 +1621,7 @@
       </c>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="4"/>
@@ -1274,7 +1639,7 @@
       </c>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="4"/>
@@ -1292,7 +1657,7 @@
       </c>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="4"/>
@@ -1310,7 +1675,7 @@
       </c>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="4"/>
@@ -1328,7 +1693,7 @@
       </c>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="4"/>
@@ -1346,7 +1711,7 @@
       </c>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="4"/>
@@ -1364,7 +1729,7 @@
       </c>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="4"/>
@@ -1382,7 +1747,7 @@
       </c>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="4"/>
@@ -1400,7 +1765,7 @@
       </c>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="4"/>
@@ -1418,7 +1783,7 @@
       </c>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="4"/>
@@ -1436,7 +1801,7 @@
       </c>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="4"/>
@@ -1454,7 +1819,7 @@
       </c>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="4"/>
@@ -1472,7 +1837,7 @@
       </c>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="4"/>
@@ -1490,7 +1855,7 @@
       </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="4"/>
@@ -1508,7 +1873,7 @@
       </c>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="4"/>
@@ -1526,7 +1891,7 @@
       </c>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
@@ -1544,7 +1909,7 @@
       </c>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="4"/>
@@ -1562,7 +1927,7 @@
       </c>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="4"/>
@@ -1580,7 +1945,7 @@
       </c>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4"/>
@@ -1598,7 +1963,7 @@
       </c>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="4"/>
@@ -1616,7 +1981,7 @@
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="4"/>
@@ -1634,7 +1999,7 @@
       </c>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4"/>
@@ -1652,7 +2017,7 @@
       </c>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="4"/>
@@ -1670,7 +2035,7 @@
       </c>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="4"/>
@@ -1688,7 +2053,7 @@
       </c>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4"/>
@@ -1700,7 +2065,7 @@
       </c>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="4"/>
@@ -1712,7 +2077,7 @@
       </c>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4"/>
@@ -1724,7 +2089,7 @@
       </c>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4"/>
@@ -1735,7 +2100,7 @@
         <v>88566.417361111118</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4"/>
@@ -1746,7 +2111,7 @@
         <v>88571.672222222231</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="4"/>
@@ -1757,7 +2122,7 @@
         <v>88572.910416666666</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4"/>
@@ -1768,7 +2133,7 @@
         <v>88581.425000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="4"/>
@@ -1779,7 +2144,7 @@
         <v>88582.653472222213</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="4"/>
@@ -1790,7 +2155,7 @@
         <v>88585.569444444438</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="4"/>
@@ -1801,7 +2166,7 @@
         <v>88605.593055555553</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="4"/>
@@ -1812,7 +2177,7 @@
         <v>88609.679166666669</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="4"/>
@@ -1823,7 +2188,7 @@
         <v>88612.780555555553</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4"/>
@@ -1834,7 +2199,7 @@
         <v>88613.697916666657</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="H75" s="1">
@@ -1844,119 +2209,119 @@
         <v>88615.759027777778</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
@@ -1971,40 +2336,40 @@
   <dimension ref="A2:K104"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.6640625" customWidth="1"/>
     <col min="8" max="9" width="16.6640625" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -2015,13 +2380,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -2042,7 +2407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <v>88285.45</v>
       </c>
@@ -2063,7 +2428,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <v>88289.513888888891</v>
       </c>
@@ -2086,7 +2451,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <v>88297.498611111107</v>
       </c>
@@ -2109,7 +2474,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <v>88298.870833333334</v>
       </c>
@@ -2132,7 +2497,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <v>88318.53125</v>
       </c>
@@ -2155,7 +2520,7 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <v>88340.451388888891</v>
       </c>
@@ -2178,7 +2543,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <v>88345.885416666657</v>
       </c>
@@ -2201,7 +2566,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <v>88346.552083333343</v>
       </c>
@@ -2224,7 +2589,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <v>88348.8125</v>
       </c>
@@ -2247,7 +2612,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <v>88352.538888888899</v>
       </c>
@@ -2270,7 +2635,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <v>88355.470833333326</v>
       </c>
@@ -2293,7 +2658,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <v>88376.492361111101</v>
       </c>
@@ -2316,7 +2681,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <v>88387.546527777769</v>
       </c>
@@ -2339,7 +2704,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <v>88401.675000000003</v>
       </c>
@@ -2362,7 +2727,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <v>88421.510416666657</v>
       </c>
@@ -2385,7 +2750,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <v>88425.612500000003</v>
       </c>
@@ -2408,7 +2773,7 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <v>88431.594444444447</v>
       </c>
@@ -2431,7 +2796,7 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <v>88455.791666666657</v>
       </c>
@@ -2454,7 +2819,7 @@
       </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <v>88486.547222222231</v>
       </c>
@@ -2477,7 +2842,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <v>88487.5625</v>
       </c>
@@ -2500,7 +2865,7 @@
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <v>88495.513888888891</v>
       </c>
@@ -2523,7 +2888,7 @@
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <v>88533.481249999997</v>
       </c>
@@ -2546,7 +2911,7 @@
       </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <v>88593.685416666674</v>
       </c>
@@ -2569,7 +2934,7 @@
       </c>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <v>88594.738888888882</v>
       </c>
@@ -2592,7 +2957,7 @@
       </c>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <v>88605.647222222222</v>
       </c>
@@ -2615,7 +2980,7 @@
       </c>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="4"/>
@@ -2633,7 +2998,7 @@
       </c>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="4"/>
@@ -2651,7 +3016,7 @@
       </c>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="4"/>
@@ -2669,7 +3034,7 @@
       </c>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="4"/>
@@ -2687,7 +3052,7 @@
       </c>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="4"/>
@@ -2705,7 +3070,7 @@
       </c>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="4"/>
@@ -2723,7 +3088,7 @@
       </c>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="4"/>
@@ -2741,7 +3106,7 @@
       </c>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="4"/>
@@ -2759,7 +3124,7 @@
       </c>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="4"/>
@@ -2777,7 +3142,7 @@
       </c>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="4"/>
@@ -2795,7 +3160,7 @@
       </c>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="4"/>
@@ -2813,7 +3178,7 @@
       </c>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="4"/>
@@ -2831,7 +3196,7 @@
       </c>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="4"/>
@@ -2849,7 +3214,7 @@
       </c>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="4"/>
@@ -2867,7 +3232,7 @@
       </c>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="4"/>
@@ -2885,7 +3250,7 @@
       </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="4"/>
@@ -2903,7 +3268,7 @@
       </c>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="4"/>
@@ -2921,7 +3286,7 @@
       </c>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
@@ -2939,7 +3304,7 @@
       </c>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="4"/>
@@ -2957,7 +3322,7 @@
       </c>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="4"/>
@@ -2975,7 +3340,7 @@
       </c>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4"/>
@@ -2993,7 +3358,7 @@
       </c>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="4"/>
@@ -3011,7 +3376,7 @@
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="4"/>
@@ -3029,7 +3394,7 @@
       </c>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4"/>
@@ -3047,7 +3412,7 @@
       </c>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="4"/>
@@ -3065,7 +3430,7 @@
       </c>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="4"/>
@@ -3083,7 +3448,7 @@
       </c>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4"/>
@@ -3095,7 +3460,7 @@
       </c>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="4"/>
@@ -3107,7 +3472,7 @@
       </c>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4"/>
@@ -3119,7 +3484,7 @@
       </c>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4"/>
@@ -3130,7 +3495,7 @@
         <v>88566.417361111118</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4"/>
@@ -3141,7 +3506,7 @@
         <v>88571.672222222231</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="4"/>
@@ -3152,7 +3517,7 @@
         <v>88572.910416666666</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4"/>
@@ -3163,7 +3528,7 @@
         <v>88581.425000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="4"/>
@@ -3174,7 +3539,7 @@
         <v>88582.653472222213</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="4"/>
@@ -3185,7 +3550,7 @@
         <v>88585.569444444438</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="4"/>
@@ -3196,7 +3561,7 @@
         <v>88605.593055555553</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="4"/>
@@ -3207,7 +3572,7 @@
         <v>88609.679166666669</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="4"/>
@@ -3218,7 +3583,7 @@
         <v>88612.780555555553</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4"/>
@@ -3229,7 +3594,7 @@
         <v>88613.697916666657</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="H75" s="1">
@@ -3239,119 +3604,119 @@
         <v>88615.759027777778</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
@@ -3365,19 +3730,19 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -3386,707 +3751,707 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2" s="1">
         <v>88285.468055555553</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <v>88289.540972222225</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <v>88297.506944444438</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <v>88298.897916666669</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <v>88318.645138888882</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <v>88340.583333333343</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <v>88346.404861111107</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <v>88346.610416666663</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <v>88350.025694444441</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <v>88352.654861111107</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <v>88355.493749999994</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <v>88376.572222222225</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <v>88387.581250000003</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <v>88401.682638888888</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <v>88421.600694444438</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <v>88425.616666666669</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <v>88431.877083333326</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <v>88455.884722222225</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <v>88486.57430555555</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <v>88487.588194444441</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <v>88495.592361111107</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <v>88533.567361111112</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <v>88593.707638888882</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <v>88594.747916666674</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <v>88605.669444444444</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <v>88299.378472222219</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <v>88300.85555555555</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <v>88305.739583333343</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <v>88317.731249999997</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <v>88318.840972222213</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <v>88323.647222222222</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <v>88325.735416666663</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <v>88326.669444444444</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <v>88327.923611111109</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <v>88330.956250000003</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <v>88338.675000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <v>88339.609722222231</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <v>88341.705555555556</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <v>88342.563194444447</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <v>88351.825694444444</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <v>88355.617361111101</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <v>88361.672916666663</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <v>88362.747916666674</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" s="1">
         <v>88368.16805555555</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="1">
         <v>88382.881944444438</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="1">
         <v>88390.495833333334</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" s="1">
         <v>88393.61319444445</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="1">
         <v>88395.722916666666</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" s="1">
         <v>88401.915972222225</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B51" s="1">
         <v>88403.641666666663</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" s="1">
         <v>88405.104861111118</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B53" s="1">
         <v>88407.471527777787</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B54" s="1">
         <v>88408.609027777769</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B55" s="1">
         <v>88409.990972222222</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B56" s="1">
         <v>88414.658333333326</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B57" s="1">
         <v>88417.665277777778</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B58" s="1">
         <v>88419.184027777781</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B59" s="1">
         <v>88425.80069444445</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B60" s="1">
         <v>88432.715972222213</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B61" s="1">
         <v>88546.731944444444</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B62" s="1">
         <v>88548.684027777781</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B63" s="1">
         <v>88557.777083333334</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B64" s="1">
         <v>88560.625694444447</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" s="1">
         <v>88569.643055555556</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B66" s="1">
         <v>88573.664583333331</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B67" s="1">
         <v>88580.700694444444</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" s="1">
         <v>88581.716666666674</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B69" s="1">
         <v>88582.885416666657</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" s="1">
         <v>88600.909722222219</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B71" s="1">
         <v>88604.670138888891</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B72" s="1">
         <v>88607.594444444447</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B73" s="1">
         <v>88615.763888888891</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B74" s="1">
         <v>88619.709722222222</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B75" s="1">
         <v>88621.728472222225</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B76" s="1">
         <v>88634.166666666657</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B77" s="1">
         <v>88635.681249999994</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B78" s="1">
         <v>88288.817361111112</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B79" s="1">
         <v>88291.566666666666</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B80" s="1">
         <v>88302.629861111112</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B81" s="1">
         <v>88305.600000000006</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B82" s="1">
         <v>88309.708333333343</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B83" s="1">
         <v>88320.682638888888</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B84" s="1">
         <v>88322.945833333331</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B85" s="1">
         <v>88323.70694444445</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B86" s="1">
         <v>88325.717361111107</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B87" s="1">
         <v>88336.761111111118</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B88" s="1">
         <v>88340.709027777775</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B89" s="1">
         <v>88342.622222222213</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B90" s="1">
         <v>88352.763194444444</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B91" s="1">
         <v>88355.531944444447</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B92" s="1">
         <v>88360.563888888893</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B93" s="1">
         <v>88363.563194444447</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B94" s="1">
         <v>88364.696527777778</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B95" s="1">
         <v>88366.282638888893</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B96" s="1">
         <v>88367.61319444445</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" s="1">
         <v>88375.59375</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B98" s="1">
         <v>88379.125</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" s="1">
         <v>88385.745833333334</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" s="1">
         <v>88390.037500000006</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" s="1">
         <v>88404.647222222222</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B102" s="1">
         <v>88407.611111111109</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B103" s="1">
         <v>88410.65</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B104" s="1">
         <v>88411.697222222225</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B105" s="1">
         <v>88414.784027777787</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B106" s="1">
         <v>88418.601388888899</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B107" s="1">
         <v>88423.665972222225</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B108" s="1">
         <v>88427.374305555553</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B109" s="1">
         <v>88431.619444444441</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B110" s="1">
         <v>88433.788194444438</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B111" s="1">
         <v>88438.972222222219</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B112" s="1">
         <v>88447.836111111101</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B113" s="1">
         <v>88448.873611111107</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B114" s="1">
         <v>88469.718055555553</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B115" s="1">
         <v>88471.756250000006</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B116" s="1">
         <v>88475.286111111112</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B117" s="1">
         <v>88498.902777777781</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B118" s="1">
         <v>88501.681944444441</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B119" s="1">
         <v>88505.506250000006</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B120" s="1">
         <v>88506.680555555562</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B121" s="1">
         <v>88512.652083333334</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B122" s="1">
         <v>88516.755555555559</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B123" s="1">
         <v>88519.591666666674</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B124" s="1">
         <v>88523.698611111118</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B125" s="1">
         <v>88526.654861111107</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B126" s="1">
         <v>88530.585416666669</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B127" s="1">
         <v>88533.801388888882</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B128" s="1">
         <v>88542.51944444445</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B129" s="1">
         <v>88547.702083333337</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B130" s="1">
         <v>88549.579861111109</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B131" s="1">
         <v>88553.566666666666</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B132" s="1">
         <v>88566.417361111118</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B133" s="1">
         <v>88571.672222222231</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B134" s="1">
         <v>88572.910416666666</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B135" s="1">
         <v>88581.425000000003</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B136" s="1">
         <v>88582.653472222213</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B137" s="1">
         <v>88585.569444444438</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B138" s="1">
         <v>88605.593055555553</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B139" s="1">
         <v>88609.679166666669</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B140" s="1">
         <v>88612.780555555553</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B141" s="1">
         <v>88613.697916666657</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B142" s="1">
         <v>88615.759027777778</v>
       </c>
@@ -4104,43 +4469,43 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="39.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" style="9"/>
+    <col min="1" max="1" width="39.86328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="67.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="67.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4152,23 +4517,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7AE75B-8090-4F5F-A3FE-2A8573D71AF4}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.53125" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.86328125" customWidth="1"/>
+    <col min="4" max="4" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.265625" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.73046875" customWidth="1"/>
+    <col min="8" max="8" width="23.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -4185,16 +4550,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4211,11 +4576,11 @@
         <v>43500.616666666669</v>
       </c>
       <c r="F2" s="6">
-        <f>ROUND((E2-D2)*1440,0)</f>
+        <f t="shared" ref="F2:F33" si="0">ROUND((E2-D2)*1440,0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4232,11 +4597,11 @@
         <v>43476.682638888888</v>
       </c>
       <c r="F3" s="6">
-        <f>ROUND((E3-D3)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4253,11 +4618,11 @@
         <v>43372.506944444445</v>
       </c>
       <c r="F4" s="6">
-        <f>ROUND((E4-D4)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4274,11 +4639,11 @@
         <v>43669.747916666667</v>
       </c>
       <c r="F5" s="6">
-        <f>ROUND((E5-D5)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4295,11 +4660,11 @@
         <v>43360.468055555553</v>
       </c>
       <c r="F6" s="6">
-        <f>ROUND((E6-D6)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4316,11 +4681,11 @@
         <v>43413.675000000003</v>
       </c>
       <c r="F7" s="6">
-        <f>ROUND((E7-D7)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4337,11 +4702,11 @@
         <v>43668.707638888889</v>
       </c>
       <c r="F8" s="6">
-        <f>ROUND((E8-D8)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
@@ -4358,11 +4723,11 @@
         <v>43680.669444444444</v>
       </c>
       <c r="F9" s="6">
-        <f>ROUND((E9-D9)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4379,11 +4744,11 @@
         <v>43430.493750000001</v>
       </c>
       <c r="F10" s="6">
-        <f>ROUND((E10-D10)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4400,11 +4765,11 @@
         <v>43562.588194444441</v>
       </c>
       <c r="F11" s="6">
-        <f>ROUND((E11-D11)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>5</v>
       </c>
@@ -4421,11 +4786,11 @@
         <v>43384.708333333336</v>
       </c>
       <c r="F12" s="6">
-        <f>ROUND((E12-D12)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4442,11 +4807,11 @@
         <v>43364.540972222225</v>
       </c>
       <c r="F13" s="6">
-        <f>ROUND((E13-D13)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4463,11 +4828,11 @@
         <v>43373.897916666669</v>
       </c>
       <c r="F14" s="6">
-        <f>ROUND((E14-D14)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4484,11 +4849,11 @@
         <v>43561.574305555558</v>
       </c>
       <c r="F15" s="6">
-        <f>ROUND((E15-D15)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4505,11 +4870,11 @@
         <v>43482.611111111109</v>
       </c>
       <c r="F16" s="6">
-        <f>ROUND((E16-D16)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>5</v>
       </c>
@@ -4526,11 +4891,11 @@
         <v>43415.709027777775</v>
       </c>
       <c r="F17" s="6">
-        <f>ROUND((E17-D17)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4547,11 +4912,11 @@
         <v>43462.581250000003</v>
       </c>
       <c r="F18" s="6">
-        <f>ROUND((E18-D18)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4568,11 +4933,11 @@
         <v>43436.67291666667</v>
       </c>
       <c r="F19" s="6">
-        <f>ROUND((E19-D19)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>4</v>
       </c>
@@ -4589,11 +4954,11 @@
         <v>43478.64166666667</v>
       </c>
       <c r="F20" s="6">
-        <f>ROUND((E20-D20)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4610,11 +4975,11 @@
         <v>43598.698611111111</v>
       </c>
       <c r="F21" s="6">
-        <f>ROUND((E21-D21)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4631,11 +4996,11 @@
         <v>43605.585416666669</v>
       </c>
       <c r="F22" s="6">
-        <f>ROUND((E22-D22)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4652,11 +5017,11 @@
         <v>43398.647222222222</v>
       </c>
       <c r="F23" s="6">
-        <f>ROUND((E23-D23)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2</v>
       </c>
@@ -4673,11 +5038,11 @@
         <v>43601.654861111114</v>
       </c>
       <c r="F24" s="6">
-        <f>ROUND((E24-D24)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>3</v>
       </c>
@@ -4694,11 +5059,11 @@
         <v>43426.825694444444</v>
       </c>
       <c r="F25" s="6">
-        <f>ROUND((E25-D25)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>5</v>
       </c>
@@ -4715,11 +5080,11 @@
         <v>43430.531944444447</v>
       </c>
       <c r="F26" s="6">
-        <f>ROUND((E26-D26)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>4</v>
       </c>
@@ -4736,11 +5101,11 @@
         <v>43682.594444444447</v>
       </c>
       <c r="F27" s="6">
-        <f>ROUND((E27-D27)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
@@ -4757,11 +5122,11 @@
         <v>43421.61041666667</v>
       </c>
       <c r="F28" s="6">
-        <f>ROUND((E28-D28)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>5</v>
       </c>
@@ -4778,11 +5143,11 @@
         <v>43438.563194444447</v>
       </c>
       <c r="F29" s="6">
-        <f>ROUND((E29-D29)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4799,11 +5164,11 @@
         <v>43500.800694444442</v>
       </c>
       <c r="F30" s="6">
-        <f>ROUND((E30-D30)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4820,11 +5185,11 @@
         <v>43696.728472222225</v>
       </c>
       <c r="F31" s="6">
-        <f>ROUND((E31-D31)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4841,11 +5206,11 @@
         <v>43483.609027777777</v>
       </c>
       <c r="F32" s="6">
-        <f>ROUND((E32-D32)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2</v>
       </c>
@@ -4862,11 +5227,11 @@
         <v>43485.65</v>
       </c>
       <c r="F33" s="6">
-        <f>ROUND((E33-D33)*1440,0)</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
@@ -4883,11 +5248,11 @@
         <v>43392.731249999997</v>
       </c>
       <c r="F34" s="6">
-        <f>ROUND((E34-D34)*1440,0)</f>
+        <f t="shared" ref="F34:F65" si="1">ROUND((E34-D34)*1440,0)</f>
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>5</v>
       </c>
@@ -4904,11 +5269,11 @@
         <v>43435.563888888886</v>
       </c>
       <c r="F35" s="6">
-        <f>ROUND((E35-D35)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>5</v>
       </c>
@@ -4925,11 +5290,11 @@
         <v>43417.62222222222</v>
       </c>
       <c r="F36" s="6">
-        <f>ROUND((E36-D36)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3</v>
       </c>
@@ -4946,11 +5311,11 @@
         <v>43570.592361111114</v>
       </c>
       <c r="F37" s="6">
-        <f>ROUND((E37-D37)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3</v>
       </c>
@@ -4967,11 +5332,11 @@
         <v>43457.881944444445</v>
       </c>
       <c r="F38" s="6">
-        <f>ROUND((E38-D38)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3</v>
       </c>
@@ -4988,11 +5353,11 @@
         <v>43451.572222222225</v>
       </c>
       <c r="F39" s="6">
-        <f>ROUND((E39-D39)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2</v>
       </c>
@@ -5009,11 +5374,11 @@
         <v>43687.780555555553</v>
       </c>
       <c r="F40" s="6">
-        <f>ROUND((E40-D40)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>4</v>
       </c>
@@ -5030,11 +5395,11 @@
         <v>43492.665277777778</v>
       </c>
       <c r="F41" s="6">
-        <f>ROUND((E41-D41)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>3</v>
       </c>
@@ -5051,11 +5416,11 @@
         <v>43608.567361111112</v>
       </c>
       <c r="F42" s="6">
-        <f>ROUND((E42-D42)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>5</v>
       </c>
@@ -5072,11 +5437,11 @@
         <v>43427.763194444444</v>
       </c>
       <c r="F43" s="6">
-        <f>ROUND((E43-D43)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>3</v>
       </c>
@@ -5093,11 +5458,11 @@
         <v>43496.600694444445</v>
       </c>
       <c r="F44" s="6">
-        <f>ROUND((E44-D44)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>4</v>
       </c>
@@ -5114,11 +5479,11 @@
         <v>43694.709722222222</v>
       </c>
       <c r="F45" s="6">
-        <f>ROUND((E45-D45)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>3</v>
       </c>
@@ -5135,11 +5500,11 @@
         <v>43530.884722222225</v>
       </c>
       <c r="F46" s="6">
-        <f>ROUND((E46-D46)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>3</v>
       </c>
@@ -5156,11 +5521,11 @@
         <v>43393.84097222222</v>
       </c>
       <c r="F47" s="6">
-        <f>ROUND((E47-D47)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2</v>
       </c>
@@ -5177,11 +5542,11 @@
         <v>43594.591666666667</v>
       </c>
       <c r="F48" s="6">
-        <f>ROUND((E48-D48)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>5</v>
       </c>
@@ -5198,11 +5563,11 @@
         <v>43450.59375</v>
       </c>
       <c r="F49" s="6">
-        <f>ROUND((E49-D49)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>5</v>
       </c>
@@ -5219,11 +5584,11 @@
         <v>43366.566666666666</v>
       </c>
       <c r="F50" s="6">
-        <f>ROUND((E50-D50)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>2</v>
       </c>
@@ -5240,11 +5605,11 @@
         <v>43523.873611111114</v>
       </c>
       <c r="F51" s="6">
-        <f>ROUND((E51-D51)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2</v>
       </c>
@@ -5261,11 +5626,11 @@
         <v>43628.566666666666</v>
       </c>
       <c r="F52" s="6">
-        <f>ROUND((E52-D52)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>5</v>
       </c>
@@ -5282,11 +5647,11 @@
         <v>43380.6</v>
       </c>
       <c r="F53" s="6">
-        <f>ROUND((E53-D53)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>4</v>
       </c>
@@ -5303,11 +5668,11 @@
         <v>43675.909722222219</v>
       </c>
       <c r="F54" s="6">
-        <f>ROUND((E54-D54)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2</v>
       </c>
@@ -5324,11 +5689,11 @@
         <v>43690.759027777778</v>
       </c>
       <c r="F55" s="6">
-        <f>ROUND((E55-D55)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>4</v>
       </c>
@@ -5345,11 +5710,11 @@
         <v>43489.658333333333</v>
       </c>
       <c r="F56" s="6">
-        <f>ROUND((E56-D56)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>4</v>
       </c>
@@ -5366,11 +5731,11 @@
         <v>43632.777083333334</v>
       </c>
       <c r="F57" s="6">
-        <f>ROUND((E57-D57)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2</v>
       </c>
@@ -5387,11 +5752,11 @@
         <v>43580.506249999999</v>
       </c>
       <c r="F58" s="6">
-        <f>ROUND((E58-D58)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>4</v>
       </c>
@@ -5408,11 +5773,11 @@
         <v>43648.664583333331</v>
       </c>
       <c r="F59" s="6">
-        <f>ROUND((E59-D59)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2</v>
       </c>
@@ -5429,11 +5794,11 @@
         <v>43646.672222222223</v>
       </c>
       <c r="F60" s="6">
-        <f>ROUND((E60-D60)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2</v>
       </c>
@@ -5450,11 +5815,11 @@
         <v>43486.697222222225</v>
       </c>
       <c r="F61" s="6">
-        <f>ROUND((E61-D61)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2</v>
       </c>
@@ -5471,11 +5836,11 @@
         <v>43647.910416666666</v>
       </c>
       <c r="F62" s="6">
-        <f>ROUND((E62-D62)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>3</v>
       </c>
@@ -5492,11 +5857,11 @@
         <v>43380.739583333336</v>
       </c>
       <c r="F63" s="6">
-        <f>ROUND((E63-D63)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>3</v>
       </c>
@@ -5513,11 +5878,11 @@
         <v>43393.645138888889</v>
       </c>
       <c r="F64" s="6">
-        <f>ROUND((E64-D64)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>2</v>
       </c>
@@ -5534,11 +5899,11 @@
         <v>43624.579861111109</v>
       </c>
       <c r="F65" s="6">
-        <f>ROUND((E65-D65)*1440,0)</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>3</v>
       </c>
@@ -5555,11 +5920,11 @@
         <v>43427.654861111114</v>
       </c>
       <c r="F66" s="6">
-        <f>ROUND((E66-D66)*1440,0)</f>
+        <f t="shared" ref="F66:F97" si="2">ROUND((E66-D66)*1440,0)</f>
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>3</v>
       </c>
@@ -5576,11 +5941,11 @@
         <v>43414.609722222223</v>
       </c>
       <c r="F67" s="6">
-        <f>ROUND((E67-D67)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>4</v>
       </c>
@@ -5597,11 +5962,11 @@
         <v>43690.763888888891</v>
       </c>
       <c r="F68" s="6">
-        <f>ROUND((E68-D68)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>4</v>
       </c>
@@ -5618,11 +5983,11 @@
         <v>43507.71597222222</v>
       </c>
       <c r="F69" s="6">
-        <f>ROUND((E69-D69)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>3</v>
       </c>
@@ -5639,11 +6004,11 @@
         <v>43465.495833333334</v>
       </c>
       <c r="F70" s="6">
-        <f>ROUND((E70-D70)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>3</v>
       </c>
@@ -5660,11 +6025,11 @@
         <v>43401.669444444444</v>
       </c>
       <c r="F71" s="6">
-        <f>ROUND((E71-D71)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>5</v>
       </c>
@@ -5681,11 +6046,11 @@
         <v>43442.613194444442</v>
       </c>
       <c r="F72" s="6">
-        <f>ROUND((E72-D72)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>2</v>
       </c>
@@ -5702,11 +6067,11 @@
         <v>43660.569444444445</v>
       </c>
       <c r="F73" s="6">
-        <f>ROUND((E73-D73)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>3</v>
       </c>
@@ -5723,11 +6088,11 @@
         <v>43415.583333333336</v>
       </c>
       <c r="F74" s="6">
-        <f>ROUND((E74-D74)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>4</v>
       </c>
@@ -5744,11 +6109,11 @@
         <v>43470.722916666666</v>
       </c>
       <c r="F75" s="6">
-        <f>ROUND((E75-D75)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>4</v>
       </c>
@@ -5765,11 +6130,11 @@
         <v>43468.613194444442</v>
       </c>
       <c r="F76" s="6">
-        <f>ROUND((E76-D76)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>4</v>
       </c>
@@ -5786,11 +6151,11 @@
         <v>43710.681250000001</v>
       </c>
       <c r="F77" s="6">
-        <f>ROUND((E77-D77)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>4</v>
       </c>
@@ -5807,11 +6172,11 @@
         <v>43656.716666666667</v>
       </c>
       <c r="F78" s="6">
-        <f>ROUND((E78-D78)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>2</v>
       </c>
@@ -5828,11 +6193,11 @@
         <v>43680.593055555553</v>
       </c>
       <c r="F79" s="6">
-        <f>ROUND((E79-D79)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>5</v>
       </c>
@@ -5849,11 +6214,11 @@
         <v>43460.745833333334</v>
       </c>
       <c r="F80" s="6">
-        <f>ROUND((E80-D80)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>2</v>
       </c>
@@ -5870,11 +6235,11 @@
         <v>43522.836111111108</v>
       </c>
       <c r="F81" s="6">
-        <f>ROUND((E81-D81)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>2</v>
       </c>
@@ -5891,11 +6256,11 @@
         <v>43657.65347222222</v>
       </c>
       <c r="F82" s="6">
-        <f>ROUND((E82-D82)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>2</v>
       </c>
@@ -5912,11 +6277,11 @@
         <v>43493.601388888892</v>
       </c>
       <c r="F83" s="6">
-        <f>ROUND((E83-D83)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>214</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>4</v>
       </c>
@@ -5933,11 +6298,11 @@
         <v>43655.700694444444</v>
       </c>
       <c r="F84" s="6">
-        <f>ROUND((E84-D84)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>2</v>
       </c>
@@ -5954,11 +6319,11 @@
         <v>43622.70208333333</v>
       </c>
       <c r="F85" s="6">
-        <f>ROUND((E85-D85)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>4</v>
       </c>
@@ -5975,11 +6340,11 @@
         <v>43635.625694444447</v>
       </c>
       <c r="F86" s="6">
-        <f>ROUND((E86-D86)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>5</v>
       </c>
@@ -5996,11 +6361,11 @@
         <v>43439.696527777778</v>
       </c>
       <c r="F87" s="6">
-        <f>ROUND((E87-D87)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>238</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>2</v>
       </c>
@@ -6017,11 +6382,11 @@
         <v>43498.665972222225</v>
       </c>
       <c r="F88" s="6">
-        <f>ROUND((E88-D88)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>239</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>4</v>
       </c>
@@ -6038,11 +6403,11 @@
         <v>43644.643055555556</v>
       </c>
       <c r="F89" s="6">
-        <f>ROUND((E89-D89)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>3</v>
       </c>
@@ -6059,11 +6424,11 @@
         <v>43430.617361111108</v>
       </c>
       <c r="F90" s="6">
-        <f>ROUND((E90-D90)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>5</v>
       </c>
@@ -6080,11 +6445,11 @@
         <v>43398.706944444442</v>
       </c>
       <c r="F91" s="6">
-        <f>ROUND((E91-D91)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>251</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>5</v>
       </c>
@@ -6101,11 +6466,11 @@
         <v>43479.647222222222</v>
       </c>
       <c r="F92" s="6">
-        <f>ROUND((E92-D92)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>259</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>3</v>
       </c>
@@ -6122,11 +6487,11 @@
         <v>43405.956250000003</v>
       </c>
       <c r="F93" s="6">
-        <f>ROUND((E93-D93)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>2</v>
       </c>
@@ -6143,11 +6508,11 @@
         <v>43513.972222222219</v>
       </c>
       <c r="F94" s="6">
-        <f>ROUND((E94-D94)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>5</v>
       </c>
@@ -6164,11 +6529,11 @@
         <v>43377.629861111112</v>
       </c>
       <c r="F95" s="6">
-        <f>ROUND((E95-D95)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>2</v>
       </c>
@@ -6185,11 +6550,11 @@
         <v>43576.681944444441</v>
       </c>
       <c r="F96" s="6">
-        <f>ROUND((E96-D96)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>3</v>
       </c>
@@ -6206,11 +6571,11 @@
         <v>43417.563194444447</v>
       </c>
       <c r="F97" s="6">
-        <f>ROUND((E97-D97)*1440,0)</f>
+        <f t="shared" si="2"/>
         <v>310</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>4</v>
       </c>
@@ -6227,11 +6592,11 @@
         <v>43476.915972222225</v>
       </c>
       <c r="F98" s="6">
-        <f>ROUND((E98-D98)*1440,0)</f>
+        <f t="shared" ref="F98:F129" si="3">ROUND((E98-D98)*1440,0)</f>
         <v>311</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>3</v>
       </c>
@@ -6248,11 +6613,11 @@
         <v>43416.705555555556</v>
       </c>
       <c r="F99" s="6">
-        <f>ROUND((E99-D99)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>315</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>4</v>
       </c>
@@ -6269,11 +6634,11 @@
         <v>43494.184027777781</v>
       </c>
       <c r="F100" s="6">
-        <f>ROUND((E100-D100)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>323</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>2</v>
       </c>
@@ -6290,11 +6655,11 @@
         <v>43587.652083333334</v>
       </c>
       <c r="F101" s="6">
-        <f>ROUND((E101-D101)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>324</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>4</v>
       </c>
@@ -6311,11 +6676,11 @@
         <v>43623.684027777781</v>
       </c>
       <c r="F102" s="6">
-        <f>ROUND((E102-D102)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>327</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>4</v>
       </c>
@@ -6332,11 +6697,11 @@
         <v>43657.885416666664</v>
       </c>
       <c r="F103" s="6">
-        <f>ROUND((E103-D103)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>331</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>2</v>
       </c>
@@ -6353,11 +6718,11 @@
         <v>43688.697916666664</v>
       </c>
       <c r="F104" s="6">
-        <f>ROUND((E104-D104)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>348</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>2</v>
       </c>
@@ -6374,11 +6739,11 @@
         <v>43608.801388888889</v>
       </c>
       <c r="F105" s="6">
-        <f>ROUND((E105-D105)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>369</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>2</v>
       </c>
@@ -6395,11 +6760,11 @@
         <v>43684.679166666669</v>
       </c>
       <c r="F106" s="6">
-        <f>ROUND((E106-D106)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>370</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>4</v>
       </c>
@@ -6416,11 +6781,11 @@
         <v>43363.817361111112</v>
       </c>
       <c r="F107" s="6">
-        <f>ROUND((E107-D107)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>390</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>5</v>
       </c>
@@ -6437,11 +6802,11 @@
         <v>43400.717361111114</v>
       </c>
       <c r="F108" s="6">
-        <f>ROUND((E108-D108)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>392</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>2</v>
       </c>
@@ -6458,11 +6823,11 @@
         <v>43546.756249999999</v>
       </c>
       <c r="F109" s="6">
-        <f>ROUND((E109-D109)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>401</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>3</v>
       </c>
@@ -6479,11 +6844,11 @@
         <v>43437.747916666667</v>
       </c>
       <c r="F110" s="6">
-        <f>ROUND((E110-D110)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>403</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>3</v>
       </c>
@@ -6500,11 +6865,11 @@
         <v>43506.877083333333</v>
       </c>
       <c r="F111" s="6">
-        <f>ROUND((E111-D111)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>407</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>5</v>
       </c>
@@ -6521,11 +6886,11 @@
         <v>43395.682638888888</v>
       </c>
       <c r="F112" s="6">
-        <f>ROUND((E112-D112)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>407</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>2</v>
       </c>
@@ -6542,11 +6907,11 @@
         <v>43508.788194444445</v>
       </c>
       <c r="F113" s="6">
-        <f>ROUND((E113-D113)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>418</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>4</v>
       </c>
@@ -6563,11 +6928,11 @@
         <v>43621.731944444444</v>
       </c>
       <c r="F114" s="6">
-        <f>ROUND((E114-D114)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>424</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>2</v>
       </c>
@@ -6584,11 +6949,11 @@
         <v>43573.902777777781</v>
       </c>
       <c r="F115" s="6">
-        <f>ROUND((E115-D115)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>435</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>3</v>
       </c>
@@ -6605,11 +6970,11 @@
         <v>43375.855555555558</v>
       </c>
       <c r="F116" s="6">
-        <f>ROUND((E116-D116)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>3</v>
       </c>
@@ -6626,11 +6991,11 @@
         <v>43402.923611111109</v>
       </c>
       <c r="F117" s="6">
-        <f>ROUND((E117-D117)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>458</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>2</v>
       </c>
@@ -6647,11 +7012,11 @@
         <v>43489.78402777778</v>
       </c>
       <c r="F118" s="6">
-        <f>ROUND((E118-D118)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>480</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>5</v>
       </c>
@@ -6668,11 +7033,11 @@
         <v>43465.037499999999</v>
       </c>
       <c r="F119" s="6">
-        <f>ROUND((E119-D119)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>499</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>4</v>
       </c>
@@ -6689,11 +7054,11 @@
         <v>43480.104861111111</v>
       </c>
       <c r="F120" s="6">
-        <f>ROUND((E120-D120)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>517</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>2</v>
       </c>
@@ -6710,11 +7075,11 @@
         <v>43591.755555555559</v>
       </c>
       <c r="F121" s="6">
-        <f>ROUND((E121-D121)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>548</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>4</v>
       </c>
@@ -6731,11 +7096,11 @@
         <v>43484.990972222222</v>
       </c>
       <c r="F122" s="6">
-        <f>ROUND((E122-D122)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>578</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>4</v>
       </c>
@@ -6752,11 +7117,11 @@
         <v>43709.166666666664</v>
       </c>
       <c r="F123" s="6">
-        <f>ROUND((E123-D123)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>3</v>
       </c>
@@ -6773,11 +7138,11 @@
         <v>43400.73541666667</v>
       </c>
       <c r="F124" s="6">
-        <f>ROUND((E124-D124)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>634</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>2</v>
       </c>
@@ -6794,11 +7159,11 @@
         <v>43550.286111111112</v>
       </c>
       <c r="F125" s="6">
-        <f>ROUND((E125-D125)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>646</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>5</v>
       </c>
@@ -6815,11 +7180,11 @@
         <v>43397.945833333331</v>
       </c>
       <c r="F126" s="6">
-        <f>ROUND((E126-D126)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>658</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>3</v>
       </c>
@@ -6836,11 +7201,11 @@
         <v>43421.404861111114</v>
       </c>
       <c r="F127" s="6">
-        <f>ROUND((E127-D127)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>748</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>3</v>
       </c>
@@ -6857,11 +7222,11 @@
         <v>43443.168055555558</v>
       </c>
       <c r="F128" s="6">
-        <f>ROUND((E128-D128)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>817</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>5</v>
       </c>
@@ -6878,11 +7243,11 @@
         <v>43441.282638888886</v>
       </c>
       <c r="F129" s="6">
-        <f>ROUND((E129-D129)*1440,0)</f>
+        <f t="shared" si="3"/>
         <v>924</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>5</v>
       </c>
@@ -6899,11 +7264,11 @@
         <v>43454.125</v>
       </c>
       <c r="F130" s="6">
-        <f>ROUND((E130-D130)*1440,0)</f>
+        <f t="shared" ref="F130:F142" si="4">ROUND((E130-D130)*1440,0)</f>
         <v>959</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>2</v>
       </c>
@@ -6920,11 +7285,11 @@
         <v>43581.680555555555</v>
       </c>
       <c r="F131" s="6">
-        <f>ROUND((E131-D131)*1440,0)</f>
+        <f t="shared" si="4"/>
         <v>1054</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>2</v>
       </c>
@@ -6941,11 +7306,11 @@
         <v>43641.417361111111</v>
       </c>
       <c r="F132" s="6">
-        <f>ROUND((E132-D132)*1440,0)</f>
+        <f t="shared" si="4"/>
         <v>1056</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>2</v>
       </c>
@@ -6962,11 +7327,11 @@
         <v>43617.519444444442</v>
       </c>
       <c r="F133" s="6">
-        <f>ROUND((E133-D133)*1440,0)</f>
+        <f t="shared" si="4"/>
         <v>1093</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>2</v>
       </c>
@@ -6983,11 +7348,11 @@
         <v>43656.425000000003</v>
       </c>
       <c r="F134" s="6">
-        <f>ROUND((E134-D134)*1440,0)</f>
+        <f t="shared" si="4"/>
         <v>1106</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>2</v>
       </c>
@@ -7004,11 +7369,11 @@
         <v>43502.374305555553</v>
       </c>
       <c r="F135" s="6">
-        <f>ROUND((E135-D135)*1440,0)</f>
+        <f t="shared" si="4"/>
         <v>1109</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>3</v>
       </c>
@@ -7025,11 +7390,11 @@
         <v>43374.378472222219</v>
       </c>
       <c r="F136" s="6">
-        <f>ROUND((E136-D136)*1440,0)</f>
+        <f t="shared" si="4"/>
         <v>1180</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>2</v>
       </c>
@@ -7046,11 +7411,11 @@
         <v>43506.619444444441</v>
       </c>
       <c r="F137" s="6">
-        <f>ROUND((E137-D137)*1440,0)</f>
+        <f t="shared" si="4"/>
         <v>1400</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>4</v>
       </c>
@@ -7067,11 +7432,11 @@
         <v>43679.670138888891</v>
       </c>
       <c r="F138" s="6">
-        <f>ROUND((E138-D138)*1440,0)</f>
+        <f t="shared" si="4"/>
         <v>1617</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>5</v>
       </c>
@@ -7088,11 +7453,11 @@
         <v>43411.761111111111</v>
       </c>
       <c r="F139" s="6">
-        <f>ROUND((E139-D139)*1440,0)</f>
+        <f t="shared" si="4"/>
         <v>1646</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>2</v>
       </c>
@@ -7109,11 +7474,11 @@
         <v>43544.718055555553</v>
       </c>
       <c r="F140" s="6">
-        <f>ROUND((E140-D140)*1440,0)</f>
+        <f t="shared" si="4"/>
         <v>1724</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>3</v>
       </c>
@@ -7130,11 +7495,11 @@
         <v>43425.025694444441</v>
       </c>
       <c r="F141" s="6">
-        <f>ROUND((E141-D141)*1440,0)</f>
+        <f t="shared" si="4"/>
         <v>1747</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>4</v>
       </c>
@@ -7151,7 +7516,7 @@
         <v>43482.47152777778</v>
       </c>
       <c r="F142" s="6">
-        <f>ROUND((E142-D142)*1440,0)</f>
+        <f t="shared" si="4"/>
         <v>2884</v>
       </c>
     </row>
@@ -7161,268 +7526,308 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFFD8B8-6709-4F4B-AAFA-7CFF1FCDA4A3}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53125" customWidth="1"/>
+    <col min="3" max="3" width="16.265625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>5</v>
+      <c r="C5" t="s">
+        <v>44</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>13</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>17</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>19</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>8</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D12">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7432,12 +7837,1137 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2491369C-C4F0-4377-AED4-93A827CFD5A5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03272E2-2201-4F5F-B9CF-9F43DC15038E}">
+  <dimension ref="A1:D72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43725.468055555553</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43729.513888888891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43729.540972222225</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43737.498611111114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43737.506944444445</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43738.870833333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43738.897916666669</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43758.53125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43758.645138888889</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43780.451388888891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43780.583333333336</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43785.885416666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43786.404861111114</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43786.552083333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43786.61041666667</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43788.8125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43790.025694444441</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43792.538888888892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43792.654861111114</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43795.470833333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43795.493750000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43816.492361111108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43816.572222222225</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43827.546527777777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43827.581250000003</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43841.675000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43841.682638888888</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43861.510416666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43861.600694444445</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43865.612500000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43865.616666666669</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43871.594444444447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43871.877083333333</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43896.791666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43896.884722222225</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43927.547222222223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43927.574305555558</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43928.5625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43928.588194444441</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43936.513888888891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43936.592361111114</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43974.481249999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43974.567361111112</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44034.685416666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44034.707638888889</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44035.738888888889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44035.747916666667</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44046.647222222222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43739.378472222219</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43740.548611111109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43740.855555555558</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43745.626388888886</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43745.739583333336</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43757.659722222219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43757.731249999997</v>
+      </c>
+      <c r="D29" s="1">
+        <v>43758.74722222222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43758.84097222222</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43763.600694444445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43763.647222222222</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43765.295138888891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43765.73541666667</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43766.545138888891</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43766.669444444444</v>
+      </c>
+      <c r="D33" s="1">
+        <v>43767.605555555558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43767.923611111109</v>
+      </c>
+      <c r="D34" s="1">
+        <v>43770.775694444441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43770.956250000003</v>
+      </c>
+      <c r="D35" s="1">
+        <v>43778.654861111114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43778.675000000003</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43779.492361111108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43779.609722222223</v>
+      </c>
+      <c r="D37" s="1">
+        <v>43781.486805555556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43781.705555555556</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43782.347916666666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43782.563194444447</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43791.772222222222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43791.825694444444</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43795.449305555558</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43795.617361111108</v>
+      </c>
+      <c r="D41" s="1">
+        <v>43801.636111111111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43801.67291666667</v>
+      </c>
+      <c r="D42" s="1">
+        <v>43802.468055555553</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43802.747916666667</v>
+      </c>
+      <c r="D43" s="1">
+        <v>43807.600694444445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43808.168055555558</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43822.802777777775</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43822.881944444445</v>
+      </c>
+      <c r="D45" s="1">
+        <v>43830.37222222222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43830.495833333334</v>
+      </c>
+      <c r="D46" s="1">
+        <v>43833.479166666664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43833.613194444442</v>
+      </c>
+      <c r="D47" s="1">
+        <v>43835.590277777781</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43835.722916666666</v>
+      </c>
+      <c r="D48" s="1">
+        <v>43841.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43728.817361111112</v>
+      </c>
+      <c r="D49" s="1">
+        <v>43731.46875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43731.566666666666</v>
+      </c>
+      <c r="D50" s="1">
+        <v>43742.433333333334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43742.629861111112</v>
+      </c>
+      <c r="D51" s="1">
+        <v>43745.500694444447</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43745.599999999999</v>
+      </c>
+      <c r="D52" s="1">
+        <v>43749.682638888888</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43749.708333333336</v>
+      </c>
+      <c r="D53" s="1">
+        <v>43760.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43760.682638888888</v>
+      </c>
+      <c r="D54" s="1">
+        <v>43762.488888888889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43762.945833333331</v>
+      </c>
+      <c r="D55" s="1">
+        <v>43763.532638888886</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43763.706944444442</v>
+      </c>
+      <c r="D56" s="1">
+        <v>43765.445138888892</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43765.717361111114</v>
+      </c>
+      <c r="D57" s="1">
+        <v>43775.618055555555</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43776.761111111111</v>
+      </c>
+      <c r="D58" s="1">
+        <v>43780.675694444442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43780.709027777775</v>
+      </c>
+      <c r="D59" s="1">
+        <v>43782.545138888891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43782.62222222222</v>
+      </c>
+      <c r="D60" s="1">
+        <v>43792.673611111109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43792.763194444444</v>
+      </c>
+      <c r="D61" s="1">
+        <v>43795.476388888892</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43795.531944444447</v>
+      </c>
+      <c r="D62" s="1">
+        <v>43800.492361111108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43800.563888888886</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43803.504166666666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43803.563194444447</v>
+      </c>
+      <c r="D64" s="1">
+        <v>43804.53125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43804.696527777778</v>
+      </c>
+      <c r="D65" s="1">
+        <v>43805.640972222223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43806.282638888886</v>
+      </c>
+      <c r="D66" s="1">
+        <v>43807.487500000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43807.613194444442</v>
+      </c>
+      <c r="D67" s="1">
+        <v>43815.496527777781</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43815.59375</v>
+      </c>
+      <c r="D68" s="1">
+        <v>43818.459027777775</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43819.125</v>
+      </c>
+      <c r="D69" s="1">
+        <v>43825.603472222225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43825.745833333334</v>
+      </c>
+      <c r="D70" s="1">
+        <v>43829.690972222219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43830.037499999999</v>
+      </c>
+      <c r="D71" s="1">
+        <v>43844.467361111114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43844.647222222222</v>
+      </c>
+      <c r="D72" s="1">
+        <v>43847.581944444442</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D918DB5-7650-4939-89A8-2A7DE0BD2F38}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="66.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>